--- a/insight/model결과.xlsx
+++ b/insight/model결과.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>new_temp_lgbm_add_feature</t>
   </si>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>3288(stoped)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ja</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -57,6 +53,79 @@
   <si>
     <t>데이터로 가능한 템플릿사용, 추가변수 추가함
 추가변수 2019로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_differ오류 해결/loyal, refund fillna진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_differ오류 해결/loyal, refund fillna x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sigungu단위 진행 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_YYMM으로 변수 결합/전체의 평균으로 추가변수 지정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_YYMM으로 변수 결합/2020년의 평균으로 추가변수 지정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위와동일, employee, company 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_YYMM으로 변수 결합/2020년의 평균으로 추가변수 지정, tweedie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_YYMM으로 변수 결합/2020년의 평균으로 추가변수 지정, regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_temp_lgbm_add_feature-sigungu_2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_temp_lgbm_add_feature-sigungu_notebook_2020-differ</t>
+  </si>
+  <si>
+    <t>new_temp_lgbm_add_feature-sigungu_notebook</t>
+  </si>
+  <si>
+    <t>추가변수 2019로 결합, tweedie, 각변수들 성별로 세분화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_YYMM으로 변수 결합/2020년의 평균으로 추가변수 지정, tweedie, differ추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_rate 에러있었음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_temp_lgbm_add_feature-sigungu_notebook_2020-differ-sex</t>
+  </si>
+  <si>
+    <t>REG_YYMM으로 변수 결합/2020년의 평균으로 추가변수 지정, tweedie, differ추가/성별로 세분화/local_rate수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_YYMM으로 변수 결합/2020년의 평균으로 추가변수 지정, regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_YYMM으로 변수 결합/2020년의 평균으로 추가변수 지정, regression, differ추가/성별로 세분화/local_rate수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -413,12 +482,12 @@
     <col min="5" max="5" width="95.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -429,10 +498,10 @@
         <v>3.4973835593567602</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -443,20 +512,20 @@
         <v>3.4879363110752601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -465,11 +534,195 @@
         <v>4.8427874563616999</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.357598155207696</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.30066624703866801</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.5343202578368902</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.47962793212149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.4637603738212199</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.4668561667603299</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.47779558275107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.5215159117232</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.47779558275107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.4555369546256398</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.5171016994818398</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.42158616994119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>